--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1FD31F-1EA7-4A66-B98A-21E33C01399A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA3A86-0E31-46D9-A854-6DE21434D432}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="15405" windowHeight="11070" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -1302,6 +1302,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1346,9 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1841,16 +1841,16 @@
                   <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43990</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43992</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43995</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43998</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43922</c:v>
@@ -3904,10 +3904,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2</c:v>
@@ -4111,7 +4111,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>206</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,18 +6041,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -6071,16 +6071,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -6099,24 +6099,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="76"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -6131,24 +6131,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="76"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -6163,24 +6163,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -6195,24 +6195,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -6227,24 +6227,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="78">
         <v>43556</v>
       </c>
-      <c r="N7" s="78"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -6259,16 +6259,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -6287,16 +6287,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -6315,16 +6315,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -6343,23 +6343,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -6373,16 +6373,16 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
         <v>33</v>
@@ -6409,16 +6409,16 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
         <v>37</v>
@@ -6445,16 +6445,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="74"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -6473,16 +6473,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -6501,16 +6501,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -6529,16 +6529,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -6557,16 +6557,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -6585,16 +6585,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="74"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -6613,16 +6613,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -34101,8 +34101,8 @@
   </sheetPr>
   <dimension ref="A2:T163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34289,7 +34289,7 @@
       <c r="J7" s="23">
         <v>15</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34871,10 +34871,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="10">
+        <v>43989</v>
+      </c>
+      <c r="E25" s="10">
         <v>43990</v>
-      </c>
-      <c r="E25" s="10">
-        <v>43991</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="0"/>
@@ -34884,7 +34884,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I25" s="67" t="s">
         <v>121</v>
@@ -34904,10 +34904,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="10">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="E26" s="10">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="0"/>
@@ -34937,20 +34937,20 @@
         <v>17</v>
       </c>
       <c r="D27" s="10">
+        <v>43994</v>
+      </c>
+      <c r="E27" s="10">
         <v>43995</v>
-      </c>
-      <c r="E27" s="10">
-        <v>43997</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>23</v>
@@ -34970,20 +34970,20 @@
         <v>17</v>
       </c>
       <c r="D28" s="10">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="E28" s="10">
-        <v>44000</v>
+        <v>43997</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>23</v>
@@ -36974,21 +36974,21 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="83"/>
+      <c r="B96" s="84"/>
       <c r="C96" s="12"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="25">
         <f>SUM(F4:F95)</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="25">
         <f>SUM(H4:H95)</f>
-        <v>1828</v>
+        <v>1803</v>
       </c>
       <c r="I96" s="28"/>
       <c r="J96" s="25">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926DBD8C-2D21-420B-B731-DC9B1C176CC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E3163-E50B-4D4A-9F6E-AAA9DF8F2BA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
     <sheet name="Dữ liệu dự án" sheetId="5" r:id="rId2"/>
-    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId3"/>
-    <sheet name="Thời gian" sheetId="7" r:id="rId4"/>
-    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId5"/>
-    <sheet name="Tổng quan" sheetId="9" r:id="rId6"/>
-    <sheet name="Ngân sách" sheetId="8" r:id="rId7"/>
+    <sheet name="Burndown chart" sheetId="13" r:id="rId3"/>
+    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId4"/>
+    <sheet name="Thời gian" sheetId="7" r:id="rId5"/>
+    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId6"/>
+    <sheet name="Tổng quan" sheetId="9" r:id="rId7"/>
+    <sheet name="Ngân sách" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="154">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -539,6 +540,18 @@
   <si>
     <t>Thời gian nghỉ dịch (Covid-19)</t>
   </si>
+  <si>
+    <t>Số tuần</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Số công việc</t>
+  </si>
 </sst>
 </file>
 
@@ -852,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1159,6 +1172,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1175,7 +1227,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1460,6 +1512,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1496,6 +1566,746 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="vi-VN"/>
+              <a:t>Burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown chart'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số tuần</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$A$2:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C90-4F63-B8F6-1746A8FC7B16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số công việc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$D$2:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C90-4F63-B8F6-1746A8FC7B16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1692073967"/>
+        <c:axId val="1748312079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1692073967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ngày</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748312079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1748312079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Công</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> việc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692073967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -2342,7 +3152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4950,7 +5760,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000F-D524-47FB-B094-C371F3419A09}"/>
+                        <c16:uniqueId val="{0000000F-6EEC-4F3B-8C57-45375B02B4AE}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -5101,7 +5911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -5384,7 +6194,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -5588,7 +6398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -5853,6 +6663,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6409,6 +7259,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6930,6 +8296,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94277</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177282</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Biểu đồ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1087261B-9F71-4C64-BFA9-75615B708C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6969,7 +8376,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7012,7 +8419,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7055,7 +8462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7098,7 +8505,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35540,8 +36947,8 @@
   </sheetPr>
   <dimension ref="A2:T151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="A2:J83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -35733,7 +37140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="65">
         <v>5</v>
       </c>
@@ -39066,6 +40473,1075 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D4778-7D6E-4C33-A510-8DCE6081624D}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="98">
+        <v>1</v>
+      </c>
+      <c r="C2" s="99">
+        <v>4</v>
+      </c>
+      <c r="D2" s="100">
+        <v>79</v>
+      </c>
+      <c r="E2" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="99"/>
+      <c r="B3" s="98">
+        <v>2</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100">
+        <v>78</v>
+      </c>
+      <c r="E3" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="99"/>
+      <c r="B4" s="98">
+        <v>3</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100">
+        <v>77</v>
+      </c>
+      <c r="E4" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="99"/>
+      <c r="B5" s="98">
+        <v>4</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100">
+        <v>76</v>
+      </c>
+      <c r="E5" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="99"/>
+      <c r="B6" s="98">
+        <v>5</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100">
+        <v>75</v>
+      </c>
+      <c r="E6" s="98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="99"/>
+      <c r="B7" s="98">
+        <v>6</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100">
+        <v>74</v>
+      </c>
+      <c r="E7" s="98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="99">
+        <v>2</v>
+      </c>
+      <c r="B8" s="98">
+        <v>7</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100">
+        <v>73</v>
+      </c>
+      <c r="E8" s="98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="99"/>
+      <c r="B9" s="98">
+        <v>8</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100">
+        <v>72</v>
+      </c>
+      <c r="E9" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="99"/>
+      <c r="B10" s="98">
+        <v>9</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100">
+        <v>71</v>
+      </c>
+      <c r="E10" s="98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="99"/>
+      <c r="B11" s="98">
+        <v>10</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100">
+        <v>70</v>
+      </c>
+      <c r="E11" s="98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="99"/>
+      <c r="B12" s="98">
+        <v>11</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100">
+        <v>69</v>
+      </c>
+      <c r="E12" s="98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="99"/>
+      <c r="B13" s="98">
+        <v>12</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100">
+        <v>68</v>
+      </c>
+      <c r="E13" s="98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="99">
+        <v>3</v>
+      </c>
+      <c r="B14" s="98">
+        <v>13</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100">
+        <v>67</v>
+      </c>
+      <c r="E14" s="98">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="99"/>
+      <c r="B15" s="98">
+        <v>14</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100">
+        <v>66</v>
+      </c>
+      <c r="E15" s="98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="99"/>
+      <c r="B16" s="98">
+        <v>15</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100">
+        <v>65</v>
+      </c>
+      <c r="E16" s="98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="99"/>
+      <c r="B17" s="98">
+        <v>16</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100">
+        <v>64</v>
+      </c>
+      <c r="E17" s="98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="99"/>
+      <c r="B18" s="98">
+        <v>17</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100">
+        <v>63</v>
+      </c>
+      <c r="E18" s="98">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="99"/>
+      <c r="B19" s="98">
+        <v>18</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100">
+        <v>62</v>
+      </c>
+      <c r="E19" s="98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="99">
+        <v>4</v>
+      </c>
+      <c r="B20" s="98">
+        <v>19</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100">
+        <v>61</v>
+      </c>
+      <c r="E20" s="98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="99"/>
+      <c r="B21" s="98">
+        <v>20</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100">
+        <v>60</v>
+      </c>
+      <c r="E21" s="98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="99"/>
+      <c r="B22" s="98">
+        <v>21</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100">
+        <v>59</v>
+      </c>
+      <c r="E22" s="98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="99"/>
+      <c r="B23" s="98">
+        <v>22</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100">
+        <v>58</v>
+      </c>
+      <c r="E23" s="98">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="99"/>
+      <c r="B24" s="98">
+        <v>23</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100">
+        <v>57</v>
+      </c>
+      <c r="E24" s="98">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="99"/>
+      <c r="B25" s="98">
+        <v>24</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100">
+        <v>56</v>
+      </c>
+      <c r="E25" s="98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="99">
+        <v>5</v>
+      </c>
+      <c r="B26" s="98">
+        <v>25</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100">
+        <v>55</v>
+      </c>
+      <c r="E26" s="98">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="99"/>
+      <c r="B27" s="98">
+        <v>26</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100">
+        <v>54</v>
+      </c>
+      <c r="E27" s="98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="99"/>
+      <c r="B28" s="98">
+        <v>27</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100">
+        <v>53</v>
+      </c>
+      <c r="E28" s="98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="99"/>
+      <c r="B29" s="98">
+        <v>28</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100">
+        <v>52</v>
+      </c>
+      <c r="E29" s="98">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="99"/>
+      <c r="B30" s="98">
+        <v>29</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100">
+        <v>51</v>
+      </c>
+      <c r="E30" s="98">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="99"/>
+      <c r="B31" s="98">
+        <v>30</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100">
+        <v>50</v>
+      </c>
+      <c r="E31" s="98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="99">
+        <v>6</v>
+      </c>
+      <c r="B32" s="101">
+        <v>1</v>
+      </c>
+      <c r="C32" s="99">
+        <v>5</v>
+      </c>
+      <c r="D32" s="100">
+        <v>49</v>
+      </c>
+      <c r="E32" s="98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="99"/>
+      <c r="B33" s="101">
+        <v>2</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100">
+        <v>48</v>
+      </c>
+      <c r="E33" s="98">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="99"/>
+      <c r="B34" s="101">
+        <v>3</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100">
+        <v>47</v>
+      </c>
+      <c r="E34" s="98">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="99"/>
+      <c r="B35" s="101">
+        <v>4</v>
+      </c>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100">
+        <v>46</v>
+      </c>
+      <c r="E35" s="98">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="99"/>
+      <c r="B36" s="101">
+        <v>5</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100">
+        <v>45</v>
+      </c>
+      <c r="E36" s="98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="99"/>
+      <c r="B37" s="101">
+        <v>6</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100">
+        <v>44</v>
+      </c>
+      <c r="E37" s="98">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="99">
+        <v>7</v>
+      </c>
+      <c r="B38" s="101">
+        <v>7</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100">
+        <v>43</v>
+      </c>
+      <c r="E38" s="98">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="99"/>
+      <c r="B39" s="101">
+        <v>8</v>
+      </c>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100">
+        <v>42</v>
+      </c>
+      <c r="E39" s="98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="99"/>
+      <c r="B40" s="101">
+        <v>9</v>
+      </c>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100">
+        <v>41</v>
+      </c>
+      <c r="E40" s="98">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="99"/>
+      <c r="B41" s="101">
+        <v>10</v>
+      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100">
+        <v>40</v>
+      </c>
+      <c r="E41" s="98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="99"/>
+      <c r="B42" s="101">
+        <v>11</v>
+      </c>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100">
+        <v>39</v>
+      </c>
+      <c r="E42" s="98">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="99"/>
+      <c r="B43" s="101">
+        <v>12</v>
+      </c>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100">
+        <v>38</v>
+      </c>
+      <c r="E43" s="98">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="99"/>
+      <c r="B44" s="101">
+        <v>13</v>
+      </c>
+      <c r="C44" s="99"/>
+      <c r="D44" s="100">
+        <v>37</v>
+      </c>
+      <c r="E44" s="98">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="99">
+        <v>8</v>
+      </c>
+      <c r="B45" s="101">
+        <v>14</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="100">
+        <v>36</v>
+      </c>
+      <c r="E45" s="98">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="99"/>
+      <c r="B46" s="101">
+        <v>15</v>
+      </c>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100">
+        <v>35</v>
+      </c>
+      <c r="E46" s="98">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="99"/>
+      <c r="B47" s="101">
+        <v>16</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100">
+        <v>34</v>
+      </c>
+      <c r="E47" s="98">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="99"/>
+      <c r="B48" s="101">
+        <v>17</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="100">
+        <v>33</v>
+      </c>
+      <c r="E48" s="98">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="99"/>
+      <c r="B49" s="101">
+        <v>18</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100">
+        <v>32</v>
+      </c>
+      <c r="E49" s="98">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="99"/>
+      <c r="B50" s="101">
+        <v>19</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100">
+        <v>31</v>
+      </c>
+      <c r="E50" s="98">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="99"/>
+      <c r="B51" s="101">
+        <v>20</v>
+      </c>
+      <c r="C51" s="99"/>
+      <c r="D51" s="100">
+        <v>30</v>
+      </c>
+      <c r="E51" s="98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="99"/>
+      <c r="B52" s="101">
+        <v>21</v>
+      </c>
+      <c r="C52" s="99"/>
+      <c r="D52" s="100">
+        <v>29</v>
+      </c>
+      <c r="E52" s="98">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="99"/>
+      <c r="B53" s="101">
+        <v>22</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="100">
+        <v>28</v>
+      </c>
+      <c r="E53" s="98">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="99">
+        <v>9</v>
+      </c>
+      <c r="B54" s="101">
+        <v>23</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100">
+        <v>27</v>
+      </c>
+      <c r="E54" s="98">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="99"/>
+      <c r="B55" s="101">
+        <v>24</v>
+      </c>
+      <c r="C55" s="99"/>
+      <c r="D55" s="100">
+        <v>26</v>
+      </c>
+      <c r="E55" s="98">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="99"/>
+      <c r="B56" s="101">
+        <v>25</v>
+      </c>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100">
+        <v>25</v>
+      </c>
+      <c r="E56" s="98">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="99"/>
+      <c r="B57" s="101">
+        <v>26</v>
+      </c>
+      <c r="C57" s="99"/>
+      <c r="D57" s="100">
+        <v>24</v>
+      </c>
+      <c r="E57" s="98">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="99"/>
+      <c r="B58" s="101">
+        <v>27</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="100">
+        <v>23</v>
+      </c>
+      <c r="E58" s="98">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="99"/>
+      <c r="B59" s="101">
+        <v>28</v>
+      </c>
+      <c r="C59" s="99"/>
+      <c r="D59" s="100">
+        <v>22</v>
+      </c>
+      <c r="E59" s="98">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="99"/>
+      <c r="B60" s="101">
+        <v>29</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100">
+        <v>21</v>
+      </c>
+      <c r="E60" s="98">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="99"/>
+      <c r="B61" s="101">
+        <v>30</v>
+      </c>
+      <c r="C61" s="99"/>
+      <c r="D61" s="100">
+        <v>20</v>
+      </c>
+      <c r="E61" s="98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="99">
+        <v>10</v>
+      </c>
+      <c r="B62" s="101">
+        <v>31</v>
+      </c>
+      <c r="C62" s="99"/>
+      <c r="D62" s="100">
+        <v>19</v>
+      </c>
+      <c r="E62" s="98">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="99"/>
+      <c r="B63" s="101">
+        <v>1</v>
+      </c>
+      <c r="C63" s="99">
+        <v>6</v>
+      </c>
+      <c r="D63" s="100">
+        <v>18</v>
+      </c>
+      <c r="E63" s="98">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="99"/>
+      <c r="B64" s="101">
+        <v>2</v>
+      </c>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100">
+        <v>17</v>
+      </c>
+      <c r="E64" s="98">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="99"/>
+      <c r="B65" s="101">
+        <v>3</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100">
+        <v>16</v>
+      </c>
+      <c r="E65" s="98">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="99"/>
+      <c r="B66" s="101">
+        <v>4</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100">
+        <v>15</v>
+      </c>
+      <c r="E66" s="98">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="99"/>
+      <c r="B67" s="101">
+        <v>5</v>
+      </c>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100">
+        <v>14</v>
+      </c>
+      <c r="E67" s="98">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="99"/>
+      <c r="B68" s="101">
+        <v>6</v>
+      </c>
+      <c r="C68" s="99"/>
+      <c r="D68" s="100">
+        <v>13</v>
+      </c>
+      <c r="E68" s="98">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="99"/>
+      <c r="B69" s="101">
+        <v>7</v>
+      </c>
+      <c r="C69" s="99"/>
+      <c r="D69" s="100">
+        <v>12</v>
+      </c>
+      <c r="E69" s="98">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="99"/>
+      <c r="B70" s="101">
+        <v>8</v>
+      </c>
+      <c r="C70" s="99"/>
+      <c r="D70" s="100">
+        <v>10</v>
+      </c>
+      <c r="E70" s="98">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="99">
+        <v>11</v>
+      </c>
+      <c r="B71" s="101">
+        <v>9</v>
+      </c>
+      <c r="C71" s="99"/>
+      <c r="D71" s="100">
+        <v>8</v>
+      </c>
+      <c r="E71" s="98">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="99"/>
+      <c r="B72" s="101">
+        <v>10</v>
+      </c>
+      <c r="C72" s="99"/>
+      <c r="D72" s="100">
+        <v>6</v>
+      </c>
+      <c r="E72" s="98">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="99"/>
+      <c r="B73" s="101">
+        <v>11</v>
+      </c>
+      <c r="C73" s="99"/>
+      <c r="D73" s="100">
+        <v>4</v>
+      </c>
+      <c r="E73" s="98">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="99"/>
+      <c r="B74" s="101">
+        <v>12</v>
+      </c>
+      <c r="C74" s="99"/>
+      <c r="D74" s="100">
+        <v>3</v>
+      </c>
+      <c r="E74" s="98">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="99"/>
+      <c r="B75" s="101">
+        <v>13</v>
+      </c>
+      <c r="C75" s="99"/>
+      <c r="D75" s="100">
+        <v>2</v>
+      </c>
+      <c r="E75" s="98">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="99"/>
+      <c r="B76" s="101">
+        <v>14</v>
+      </c>
+      <c r="C76" s="99"/>
+      <c r="D76" s="100">
+        <v>1</v>
+      </c>
+      <c r="E76" s="98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="99"/>
+      <c r="B77" s="101">
+        <v>15</v>
+      </c>
+      <c r="C77" s="99"/>
+      <c r="D77" s="100">
+        <v>0</v>
+      </c>
+      <c r="E77" s="98">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="C32:C62"/>
+    <mergeCell ref="C63:C77"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A2D35E-5FA7-4604-80DB-934BA13EDBD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -39080,7 +41556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -39095,7 +41571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -39110,7 +41586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -39125,7 +41601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E3163-E50B-4D4A-9F6E-AAA9DF8F2BA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD60BB-F571-4185-9837-30010D1421F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -1455,6 +1455,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,23 +1527,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2765,10 +2765,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>21</c:v>
@@ -5760,7 +5760,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000F-6EEC-4F3B-8C57-45375B02B4AE}"/>
+                        <c16:uniqueId val="{0000000F-CA8A-4085-AEF0-2F8BF023CB48}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -8887,18 +8887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -8917,16 +8917,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -8945,24 +8945,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="84"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -8977,24 +8977,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="84"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -9009,24 +9009,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="N5" s="84"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -9041,24 +9041,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="84"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -9073,24 +9073,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="90">
         <v>43556</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="91"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -9105,16 +9105,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -9133,16 +9133,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -9161,16 +9161,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -9189,23 +9189,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="89"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="94"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -9219,16 +9219,16 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
         <v>33</v>
@@ -9255,16 +9255,16 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
         <v>37</v>
@@ -9291,16 +9291,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -9319,16 +9319,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -9347,16 +9347,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -9375,16 +9375,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -9403,16 +9403,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -9431,16 +9431,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -9459,16 +9459,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -36947,8 +36947,8 @@
   </sheetPr>
   <dimension ref="A2:T151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" topLeftCell="C94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -37172,7 +37172,7 @@
       <c r="J8" s="23">
         <v>22</v>
       </c>
-      <c r="L8" s="92" t="s">
+      <c r="L8" s="97" t="s">
         <v>93</v>
       </c>
     </row>
@@ -37208,7 +37208,7 @@
       <c r="J9" s="23">
         <v>16</v>
       </c>
-      <c r="L9" s="92"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="65">
@@ -37242,7 +37242,7 @@
       <c r="J10" s="23">
         <v>18</v>
       </c>
-      <c r="L10" s="92"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="65">
@@ -37276,7 +37276,7 @@
       <c r="J11" s="23">
         <v>15</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="97"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="65">
@@ -37310,7 +37310,7 @@
       <c r="J12" s="23">
         <v>14</v>
       </c>
-      <c r="L12" s="92"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="65">
@@ -37344,7 +37344,7 @@
       <c r="J13" s="23">
         <v>11</v>
       </c>
-      <c r="L13" s="92"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="65">
@@ -37378,7 +37378,7 @@
       <c r="J14" s="23">
         <v>10</v>
       </c>
-      <c r="L14" s="92"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="1:12" ht="24">
       <c r="A15" s="65">
@@ -37412,7 +37412,7 @@
       <c r="J15" s="23">
         <v>18</v>
       </c>
-      <c r="L15" s="92"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="65">
@@ -37708,7 +37708,7 @@
         <v>80</v>
       </c>
       <c r="J24" s="23">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
@@ -37741,7 +37741,7 @@
         <v>81</v>
       </c>
       <c r="J25" s="23">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
@@ -39626,10 +39626,10 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="91"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13">
         <v>43922</v>
@@ -39713,11 +39713,11 @@
       <c r="C89" s="6">
         <v>0</v>
       </c>
-      <c r="E89" s="93" t="s">
+      <c r="E89" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="F89" s="94"/>
-      <c r="G89" s="95"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="100"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1">
@@ -40476,7 +40476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D4778-7D6E-4C33-A510-8DCE6081624D}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -40487,1040 +40487,1047 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="78" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="99">
+      <c r="A2" s="101">
         <v>1</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="101">
         <v>4</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="80">
         <v>79</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="99"/>
-      <c r="B3" s="98">
+      <c r="A3" s="101"/>
+      <c r="B3" s="79">
         <v>2</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100">
+      <c r="C3" s="101"/>
+      <c r="D3" s="80">
         <v>78</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="99"/>
-      <c r="B4" s="98">
+      <c r="A4" s="101"/>
+      <c r="B4" s="79">
         <v>3</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100">
+      <c r="C4" s="101"/>
+      <c r="D4" s="80">
         <v>77</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="79">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="99"/>
-      <c r="B5" s="98">
+      <c r="A5" s="101"/>
+      <c r="B5" s="79">
         <v>4</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100">
+      <c r="C5" s="101"/>
+      <c r="D5" s="80">
         <v>76</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="99"/>
-      <c r="B6" s="98">
+      <c r="A6" s="101"/>
+      <c r="B6" s="79">
         <v>5</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100">
+      <c r="C6" s="101"/>
+      <c r="D6" s="80">
         <v>75</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="79">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="99"/>
-      <c r="B7" s="98">
+      <c r="A7" s="101"/>
+      <c r="B7" s="79">
         <v>6</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100">
+      <c r="C7" s="101"/>
+      <c r="D7" s="80">
         <v>74</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="79">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="99">
+      <c r="A8" s="101">
         <v>2</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="79">
         <v>7</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
+      <c r="C8" s="101"/>
+      <c r="D8" s="80">
         <v>73</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="79">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="99"/>
-      <c r="B9" s="98">
+      <c r="A9" s="101"/>
+      <c r="B9" s="79">
         <v>8</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100">
+      <c r="C9" s="101"/>
+      <c r="D9" s="80">
         <v>72</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="79">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="99"/>
-      <c r="B10" s="98">
+      <c r="A10" s="101"/>
+      <c r="B10" s="79">
         <v>9</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100">
+      <c r="C10" s="101"/>
+      <c r="D10" s="80">
         <v>71</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="99"/>
-      <c r="B11" s="98">
+      <c r="A11" s="101"/>
+      <c r="B11" s="79">
         <v>10</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100">
+      <c r="C11" s="101"/>
+      <c r="D11" s="80">
         <v>70</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="79">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="99"/>
-      <c r="B12" s="98">
+      <c r="A12" s="101"/>
+      <c r="B12" s="79">
         <v>11</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100">
+      <c r="C12" s="101"/>
+      <c r="D12" s="80">
         <v>69</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="79">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="99"/>
-      <c r="B13" s="98">
+      <c r="A13" s="101"/>
+      <c r="B13" s="79">
         <v>12</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100">
+      <c r="C13" s="101"/>
+      <c r="D13" s="80">
         <v>68</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="79">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="99">
+      <c r="A14" s="101">
         <v>3</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="79">
         <v>13</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100">
+      <c r="C14" s="101"/>
+      <c r="D14" s="80">
         <v>67</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="79">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="99"/>
-      <c r="B15" s="98">
+      <c r="A15" s="101"/>
+      <c r="B15" s="79">
         <v>14</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100">
+      <c r="C15" s="101"/>
+      <c r="D15" s="80">
         <v>66</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="79">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="99"/>
-      <c r="B16" s="98">
+      <c r="A16" s="101"/>
+      <c r="B16" s="79">
         <v>15</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100">
+      <c r="C16" s="101"/>
+      <c r="D16" s="80">
         <v>65</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="79">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="99"/>
-      <c r="B17" s="98">
+      <c r="A17" s="101"/>
+      <c r="B17" s="79">
         <v>16</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100">
+      <c r="C17" s="101"/>
+      <c r="D17" s="80">
         <v>64</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="79">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="99"/>
-      <c r="B18" s="98">
+      <c r="A18" s="101"/>
+      <c r="B18" s="79">
         <v>17</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100">
+      <c r="C18" s="101"/>
+      <c r="D18" s="80">
         <v>63</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="79">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="99"/>
-      <c r="B19" s="98">
+      <c r="A19" s="101"/>
+      <c r="B19" s="79">
         <v>18</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100">
+      <c r="C19" s="101"/>
+      <c r="D19" s="80">
         <v>62</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="79">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="99">
+      <c r="A20" s="101">
         <v>4</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="79">
         <v>19</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100">
+      <c r="C20" s="101"/>
+      <c r="D20" s="80">
         <v>61</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="79">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="99"/>
-      <c r="B21" s="98">
+      <c r="A21" s="101"/>
+      <c r="B21" s="79">
         <v>20</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100">
+      <c r="C21" s="101"/>
+      <c r="D21" s="80">
         <v>60</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="79">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="99"/>
-      <c r="B22" s="98">
+      <c r="A22" s="101"/>
+      <c r="B22" s="79">
         <v>21</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="C22" s="101"/>
+      <c r="D22" s="80">
         <v>59</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="79">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="99"/>
-      <c r="B23" s="98">
+      <c r="A23" s="101"/>
+      <c r="B23" s="79">
         <v>22</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100">
+      <c r="C23" s="101"/>
+      <c r="D23" s="80">
         <v>58</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="79">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="99"/>
-      <c r="B24" s="98">
+      <c r="A24" s="101"/>
+      <c r="B24" s="79">
         <v>23</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100">
+      <c r="C24" s="101"/>
+      <c r="D24" s="80">
         <v>57</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="79">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="99"/>
-      <c r="B25" s="98">
+      <c r="A25" s="101"/>
+      <c r="B25" s="79">
         <v>24</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100">
+      <c r="C25" s="101"/>
+      <c r="D25" s="80">
         <v>56</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="79">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="99">
+      <c r="A26" s="101">
         <v>5</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="79">
         <v>25</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100">
+      <c r="C26" s="101"/>
+      <c r="D26" s="80">
         <v>55</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="79">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="99"/>
-      <c r="B27" s="98">
+      <c r="A27" s="101"/>
+      <c r="B27" s="79">
         <v>26</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="C27" s="101"/>
+      <c r="D27" s="80">
         <v>54</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="79">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="99"/>
-      <c r="B28" s="98">
+      <c r="A28" s="101"/>
+      <c r="B28" s="79">
         <v>27</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100">
+      <c r="C28" s="101"/>
+      <c r="D28" s="80">
         <v>53</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="79">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="99"/>
-      <c r="B29" s="98">
+      <c r="A29" s="101"/>
+      <c r="B29" s="79">
         <v>28</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100">
+      <c r="C29" s="101"/>
+      <c r="D29" s="80">
         <v>52</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="79">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="99"/>
-      <c r="B30" s="98">
+      <c r="A30" s="101"/>
+      <c r="B30" s="79">
         <v>29</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100">
+      <c r="C30" s="101"/>
+      <c r="D30" s="80">
         <v>51</v>
       </c>
-      <c r="E30" s="98">
+      <c r="E30" s="79">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="99"/>
-      <c r="B31" s="98">
+      <c r="A31" s="101"/>
+      <c r="B31" s="79">
         <v>30</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100">
+      <c r="C31" s="101"/>
+      <c r="D31" s="80">
         <v>50</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="79">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="99">
+      <c r="A32" s="101">
         <v>6</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="81">
         <v>1</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="101">
         <v>5</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="80">
         <v>49</v>
       </c>
-      <c r="E32" s="98">
+      <c r="E32" s="79">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="99"/>
-      <c r="B33" s="101">
+      <c r="A33" s="101"/>
+      <c r="B33" s="81">
         <v>2</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100">
+      <c r="C33" s="101"/>
+      <c r="D33" s="80">
         <v>48</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="79">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="99"/>
-      <c r="B34" s="101">
+      <c r="A34" s="101"/>
+      <c r="B34" s="81">
         <v>3</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100">
+      <c r="C34" s="101"/>
+      <c r="D34" s="80">
         <v>47</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="79">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="99"/>
-      <c r="B35" s="101">
+      <c r="A35" s="101"/>
+      <c r="B35" s="81">
         <v>4</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100">
+      <c r="C35" s="101"/>
+      <c r="D35" s="80">
         <v>46</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="79">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="99"/>
-      <c r="B36" s="101">
+      <c r="A36" s="101"/>
+      <c r="B36" s="81">
         <v>5</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100">
+      <c r="C36" s="101"/>
+      <c r="D36" s="80">
         <v>45</v>
       </c>
-      <c r="E36" s="98">
+      <c r="E36" s="79">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="99"/>
-      <c r="B37" s="101">
+      <c r="A37" s="101"/>
+      <c r="B37" s="81">
         <v>6</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="100">
+      <c r="C37" s="101"/>
+      <c r="D37" s="80">
         <v>44</v>
       </c>
-      <c r="E37" s="98">
+      <c r="E37" s="79">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="99">
+      <c r="A38" s="101">
         <v>7</v>
       </c>
-      <c r="B38" s="101">
+      <c r="B38" s="81">
         <v>7</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="100">
+      <c r="C38" s="101"/>
+      <c r="D38" s="80">
         <v>43</v>
       </c>
-      <c r="E38" s="98">
+      <c r="E38" s="79">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="99"/>
-      <c r="B39" s="101">
+      <c r="A39" s="101"/>
+      <c r="B39" s="81">
         <v>8</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100">
+      <c r="C39" s="101"/>
+      <c r="D39" s="80">
         <v>42</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E39" s="79">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="99"/>
-      <c r="B40" s="101">
+      <c r="A40" s="101"/>
+      <c r="B40" s="81">
         <v>9</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100">
+      <c r="C40" s="101"/>
+      <c r="D40" s="80">
         <v>41</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="79">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="99"/>
-      <c r="B41" s="101">
+      <c r="A41" s="101"/>
+      <c r="B41" s="81">
         <v>10</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100">
+      <c r="C41" s="101"/>
+      <c r="D41" s="80">
         <v>40</v>
       </c>
-      <c r="E41" s="98">
+      <c r="E41" s="79">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="99"/>
-      <c r="B42" s="101">
+      <c r="A42" s="101"/>
+      <c r="B42" s="81">
         <v>11</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100">
+      <c r="C42" s="101"/>
+      <c r="D42" s="80">
         <v>39</v>
       </c>
-      <c r="E42" s="98">
+      <c r="E42" s="79">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="99"/>
-      <c r="B43" s="101">
+      <c r="A43" s="101"/>
+      <c r="B43" s="81">
         <v>12</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100">
+      <c r="C43" s="101"/>
+      <c r="D43" s="80">
         <v>38</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="79">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="99"/>
-      <c r="B44" s="101">
+      <c r="A44" s="101"/>
+      <c r="B44" s="81">
         <v>13</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100">
+      <c r="C44" s="101"/>
+      <c r="D44" s="80">
         <v>37</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="79">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="99">
+      <c r="A45" s="101">
         <v>8</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="81">
         <v>14</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100">
+      <c r="C45" s="101"/>
+      <c r="D45" s="80">
         <v>36</v>
       </c>
-      <c r="E45" s="98">
+      <c r="E45" s="79">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="99"/>
-      <c r="B46" s="101">
+      <c r="A46" s="101"/>
+      <c r="B46" s="81">
         <v>15</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100">
+      <c r="C46" s="101"/>
+      <c r="D46" s="80">
         <v>35</v>
       </c>
-      <c r="E46" s="98">
+      <c r="E46" s="79">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="99"/>
-      <c r="B47" s="101">
+      <c r="A47" s="101"/>
+      <c r="B47" s="81">
         <v>16</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100">
+      <c r="C47" s="101"/>
+      <c r="D47" s="80">
         <v>34</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="79">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="99"/>
-      <c r="B48" s="101">
+      <c r="A48" s="101"/>
+      <c r="B48" s="81">
         <v>17</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100">
+      <c r="C48" s="101"/>
+      <c r="D48" s="80">
         <v>33</v>
       </c>
-      <c r="E48" s="98">
+      <c r="E48" s="79">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="99"/>
-      <c r="B49" s="101">
+      <c r="A49" s="101"/>
+      <c r="B49" s="81">
         <v>18</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="100">
+      <c r="C49" s="101"/>
+      <c r="D49" s="80">
         <v>32</v>
       </c>
-      <c r="E49" s="98">
+      <c r="E49" s="79">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="99"/>
-      <c r="B50" s="101">
+      <c r="A50" s="101"/>
+      <c r="B50" s="81">
         <v>19</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="100">
+      <c r="C50" s="101"/>
+      <c r="D50" s="80">
         <v>31</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="79">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="99"/>
-      <c r="B51" s="101">
+      <c r="A51" s="101"/>
+      <c r="B51" s="81">
         <v>20</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100">
+      <c r="C51" s="101"/>
+      <c r="D51" s="80">
         <v>30</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="79">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="99"/>
-      <c r="B52" s="101">
+      <c r="A52" s="101"/>
+      <c r="B52" s="81">
         <v>21</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="100">
+      <c r="C52" s="101"/>
+      <c r="D52" s="80">
         <v>29</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="79">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="99"/>
-      <c r="B53" s="101">
+      <c r="A53" s="101"/>
+      <c r="B53" s="81">
         <v>22</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100">
+      <c r="C53" s="101"/>
+      <c r="D53" s="80">
         <v>28</v>
       </c>
-      <c r="E53" s="98">
+      <c r="E53" s="79">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="99">
+      <c r="A54" s="101">
         <v>9</v>
       </c>
-      <c r="B54" s="101">
+      <c r="B54" s="81">
         <v>23</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="100">
+      <c r="C54" s="101"/>
+      <c r="D54" s="80">
         <v>27</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E54" s="79">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="99"/>
-      <c r="B55" s="101">
+      <c r="A55" s="101"/>
+      <c r="B55" s="81">
         <v>24</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="100">
+      <c r="C55" s="101"/>
+      <c r="D55" s="80">
         <v>26</v>
       </c>
-      <c r="E55" s="98">
+      <c r="E55" s="79">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="99"/>
-      <c r="B56" s="101">
+      <c r="A56" s="101"/>
+      <c r="B56" s="81">
         <v>25</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100">
+      <c r="C56" s="101"/>
+      <c r="D56" s="80">
         <v>25</v>
       </c>
-      <c r="E56" s="98">
+      <c r="E56" s="79">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="99"/>
-      <c r="B57" s="101">
+      <c r="A57" s="101"/>
+      <c r="B57" s="81">
         <v>26</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="100">
+      <c r="C57" s="101"/>
+      <c r="D57" s="80">
         <v>24</v>
       </c>
-      <c r="E57" s="98">
+      <c r="E57" s="79">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="99"/>
-      <c r="B58" s="101">
+      <c r="A58" s="101"/>
+      <c r="B58" s="81">
         <v>27</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="100">
+      <c r="C58" s="101"/>
+      <c r="D58" s="80">
         <v>23</v>
       </c>
-      <c r="E58" s="98">
+      <c r="E58" s="79">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="99"/>
-      <c r="B59" s="101">
+      <c r="A59" s="101"/>
+      <c r="B59" s="81">
         <v>28</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="100">
+      <c r="C59" s="101"/>
+      <c r="D59" s="80">
         <v>22</v>
       </c>
-      <c r="E59" s="98">
+      <c r="E59" s="79">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="99"/>
-      <c r="B60" s="101">
+      <c r="A60" s="101"/>
+      <c r="B60" s="81">
         <v>29</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100">
+      <c r="C60" s="101"/>
+      <c r="D60" s="80">
         <v>21</v>
       </c>
-      <c r="E60" s="98">
+      <c r="E60" s="79">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="99"/>
-      <c r="B61" s="101">
+      <c r="A61" s="101"/>
+      <c r="B61" s="81">
         <v>30</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="100">
+      <c r="C61" s="101"/>
+      <c r="D61" s="80">
         <v>20</v>
       </c>
-      <c r="E61" s="98">
+      <c r="E61" s="79">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="99">
+      <c r="A62" s="101">
         <v>10</v>
       </c>
-      <c r="B62" s="101">
+      <c r="B62" s="81">
         <v>31</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100">
+      <c r="C62" s="101"/>
+      <c r="D62" s="80">
         <v>19</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="79">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="99"/>
-      <c r="B63" s="101">
+      <c r="A63" s="101"/>
+      <c r="B63" s="81">
         <v>1</v>
       </c>
-      <c r="C63" s="99">
+      <c r="C63" s="101">
         <v>6</v>
       </c>
-      <c r="D63" s="100">
+      <c r="D63" s="80">
         <v>18</v>
       </c>
-      <c r="E63" s="98">
+      <c r="E63" s="79">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="99"/>
-      <c r="B64" s="101">
+      <c r="A64" s="101"/>
+      <c r="B64" s="81">
         <v>2</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100">
+      <c r="C64" s="101"/>
+      <c r="D64" s="80">
         <v>17</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="79">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="99"/>
-      <c r="B65" s="101">
+      <c r="A65" s="101"/>
+      <c r="B65" s="81">
         <v>3</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="100">
+      <c r="C65" s="101"/>
+      <c r="D65" s="80">
         <v>16</v>
       </c>
-      <c r="E65" s="98">
+      <c r="E65" s="79">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="99"/>
-      <c r="B66" s="101">
+      <c r="A66" s="101"/>
+      <c r="B66" s="81">
         <v>4</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100">
+      <c r="C66" s="101"/>
+      <c r="D66" s="80">
         <v>15</v>
       </c>
-      <c r="E66" s="98">
+      <c r="E66" s="79">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="99"/>
-      <c r="B67" s="101">
+      <c r="A67" s="101"/>
+      <c r="B67" s="81">
         <v>5</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100">
+      <c r="C67" s="101"/>
+      <c r="D67" s="80">
         <v>14</v>
       </c>
-      <c r="E67" s="98">
+      <c r="E67" s="79">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="99"/>
-      <c r="B68" s="101">
+      <c r="A68" s="101"/>
+      <c r="B68" s="81">
         <v>6</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="100">
+      <c r="C68" s="101"/>
+      <c r="D68" s="80">
         <v>13</v>
       </c>
-      <c r="E68" s="98">
+      <c r="E68" s="79">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="99"/>
-      <c r="B69" s="101">
+      <c r="A69" s="101"/>
+      <c r="B69" s="81">
         <v>7</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="100">
+      <c r="C69" s="101"/>
+      <c r="D69" s="80">
         <v>12</v>
       </c>
-      <c r="E69" s="98">
+      <c r="E69" s="79">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="99"/>
-      <c r="B70" s="101">
+      <c r="A70" s="101"/>
+      <c r="B70" s="81">
         <v>8</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="100">
+      <c r="C70" s="101"/>
+      <c r="D70" s="80">
         <v>10</v>
       </c>
-      <c r="E70" s="98">
+      <c r="E70" s="79">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="99">
+      <c r="A71" s="101">
         <v>11</v>
       </c>
-      <c r="B71" s="101">
+      <c r="B71" s="81">
         <v>9</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="100">
+      <c r="C71" s="101"/>
+      <c r="D71" s="80">
         <v>8</v>
       </c>
-      <c r="E71" s="98">
+      <c r="E71" s="79">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="99"/>
-      <c r="B72" s="101">
+      <c r="A72" s="101"/>
+      <c r="B72" s="81">
         <v>10</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="100">
+      <c r="C72" s="101"/>
+      <c r="D72" s="80">
         <v>6</v>
       </c>
-      <c r="E72" s="98">
+      <c r="E72" s="79">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="99"/>
-      <c r="B73" s="101">
+      <c r="A73" s="101"/>
+      <c r="B73" s="81">
         <v>11</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="100">
+      <c r="C73" s="101"/>
+      <c r="D73" s="80">
         <v>4</v>
       </c>
-      <c r="E73" s="98">
+      <c r="E73" s="79">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="99"/>
-      <c r="B74" s="101">
+      <c r="A74" s="101"/>
+      <c r="B74" s="81">
         <v>12</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="100">
+      <c r="C74" s="101"/>
+      <c r="D74" s="80">
         <v>3</v>
       </c>
-      <c r="E74" s="98">
+      <c r="E74" s="79">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="99"/>
-      <c r="B75" s="101">
+      <c r="A75" s="101"/>
+      <c r="B75" s="81">
         <v>13</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="100">
+      <c r="C75" s="101"/>
+      <c r="D75" s="80">
         <v>2</v>
       </c>
-      <c r="E75" s="98">
+      <c r="E75" s="79">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="99"/>
-      <c r="B76" s="101">
+      <c r="A76" s="101"/>
+      <c r="B76" s="81">
         <v>14</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="100">
+      <c r="C76" s="101"/>
+      <c r="D76" s="80">
         <v>1</v>
       </c>
-      <c r="E76" s="98">
+      <c r="E76" s="79">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="99"/>
-      <c r="B77" s="101">
+      <c r="A77" s="101"/>
+      <c r="B77" s="81">
         <v>15</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="100">
+      <c r="C77" s="101"/>
+      <c r="D77" s="80">
         <v>0</v>
       </c>
-      <c r="E77" s="98">
+      <c r="E77" s="79">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C31"/>
+    <mergeCell ref="C32:C62"/>
+    <mergeCell ref="C63:C77"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A62:A70"/>
     <mergeCell ref="A71:A77"/>
     <mergeCell ref="A26:A31"/>
@@ -41528,13 +41535,6 @@
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A54:A61"/>
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="C32:C62"/>
-    <mergeCell ref="C63:C77"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 3/PM_Module3_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD60BB-F571-4185-9837-30010D1421F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23457F-A262-4EF7-B580-373C7D9DD348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="156">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -552,6 +552,12 @@
   <si>
     <t>Số công việc</t>
   </si>
+  <si>
+    <t>Tổng ngày làm dự án kế hoạch (ngày)</t>
+  </si>
+  <si>
+    <t>Thời gian bù (ngày)</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1211,6 +1217,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1227,7 +1248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1529,6 +1550,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -5760,7 +5796,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000F-CA8A-4085-AEF0-2F8BF023CB48}"/>
+                        <c16:uniqueId val="{0000000F-FACF-40F6-AEE3-CCCF41792C58}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -36947,8 +36983,8 @@
   </sheetPr>
   <dimension ref="A2:T151"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -39964,12 +40000,21 @@
       <c r="I106" s="29"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="2:10" ht="15" customHeight="1">
+    <row r="107" spans="2:10" ht="38.25">
       <c r="B107" s="70" t="s">
         <v>122</v>
       </c>
       <c r="C107" s="7">
         <v>9</v>
+      </c>
+      <c r="E107" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="103" t="s">
+        <v>148</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="29"/>
@@ -39981,6 +40026,16 @@
       </c>
       <c r="C108" s="7">
         <v>8</v>
+      </c>
+      <c r="E108" s="104">
+        <v>56</v>
+      </c>
+      <c r="F108" s="105">
+        <v>15</v>
+      </c>
+      <c r="G108" s="106">
+        <f>SUM(E108+F108)</f>
+        <v>71</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="29"/>
@@ -40476,7 +40531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D4778-7D6E-4C33-A510-8DCE6081624D}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
